--- a/Final_450/FINAL450.xlsx
+++ b/Final_450/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="469">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -37,49 +37,49 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
+    <t xml:space="preserve">Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
@@ -1714,13 +1714,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K482"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -1751,179 +1751,177 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -1936,246 +1934,246 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="12"/>
       <c r="C42" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="12"/>
       <c r="C43" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2186,7 +2184,7 @@
         <v>48</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2197,7 +2195,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2208,7 +2206,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2219,7 +2217,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2230,7 +2228,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2241,7 +2239,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2252,7 +2250,7 @@
         <v>54</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2263,7 +2261,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2274,7 +2272,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2285,7 +2283,7 @@
         <v>57</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2301,7 +2299,7 @@
         <v>59</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2312,7 +2310,7 @@
         <v>60</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2323,7 +2321,7 @@
         <v>61</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2334,7 +2332,7 @@
         <v>62</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2345,7 +2343,7 @@
         <v>63</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2356,7 +2354,7 @@
         <v>64</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2367,7 +2365,7 @@
         <v>65</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2378,7 +2376,7 @@
         <v>66</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2389,7 +2387,7 @@
         <v>67</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2400,7 +2398,7 @@
         <v>68</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2411,7 +2409,7 @@
         <v>69</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2422,7 +2420,7 @@
         <v>70</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2433,7 +2431,7 @@
         <v>71</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2444,7 +2442,7 @@
         <v>72</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2455,7 +2453,7 @@
         <v>73</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2466,7 +2464,7 @@
         <v>74</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2477,7 +2475,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2488,7 +2486,7 @@
         <v>76</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2499,7 +2497,7 @@
         <v>77</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2510,7 +2508,7 @@
         <v>78</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2521,7 +2519,7 @@
         <v>79</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2532,7 +2530,7 @@
         <v>80</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2543,7 +2541,7 @@
         <v>81</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2554,7 +2552,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2565,7 +2563,7 @@
         <v>83</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2576,7 +2574,7 @@
         <v>84</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2587,7 +2585,7 @@
         <v>85</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2598,7 +2596,7 @@
         <v>86</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2609,7 +2607,7 @@
         <v>87</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2620,7 +2618,7 @@
         <v>88</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2631,7 +2629,7 @@
         <v>89</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2642,7 +2640,7 @@
         <v>90</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2653,7 +2651,7 @@
         <v>91</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2664,7 +2662,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2675,7 +2673,7 @@
         <v>93</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2686,7 +2684,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2697,7 +2695,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2708,7 +2706,7 @@
         <v>96</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2719,7 +2717,7 @@
         <v>97</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2730,7 +2728,7 @@
         <v>98</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2741,7 +2739,7 @@
         <v>99</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2752,7 +2750,7 @@
         <v>100</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2763,7 +2761,7 @@
         <v>101</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2779,7 +2777,7 @@
         <v>103</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2790,7 +2788,7 @@
         <v>104</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2801,7 +2799,7 @@
         <v>105</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2812,7 +2810,7 @@
         <v>106</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2823,7 +2821,7 @@
         <v>107</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2834,7 +2832,7 @@
         <v>108</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2845,7 +2843,7 @@
         <v>109</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2856,7 +2854,7 @@
         <v>110</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2867,7 +2865,7 @@
         <v>111</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2878,7 +2876,7 @@
         <v>112</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2889,7 +2887,7 @@
         <v>113</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2900,7 +2898,7 @@
         <v>114</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2911,7 +2909,7 @@
         <v>115</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2922,7 +2920,7 @@
         <v>116</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2933,7 +2931,7 @@
         <v>117</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2944,7 +2942,7 @@
         <v>118</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2955,7 +2953,7 @@
         <v>119</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2966,7 +2964,7 @@
         <v>120</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2977,7 +2975,7 @@
         <v>121</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2988,7 +2986,7 @@
         <v>122</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2999,7 +2997,7 @@
         <v>123</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3010,7 +3008,7 @@
         <v>124</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3021,7 +3019,7 @@
         <v>125</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3032,7 +3030,7 @@
         <v>126</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3043,7 +3041,7 @@
         <v>127</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3054,7 +3052,7 @@
         <v>128</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3065,7 +3063,7 @@
         <v>129</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3076,7 +3074,7 @@
         <v>130</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3087,7 +3085,7 @@
         <v>131</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3098,7 +3096,7 @@
         <v>132</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3109,7 +3107,7 @@
         <v>133</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3120,7 +3118,7 @@
         <v>134</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3131,7 +3129,7 @@
         <v>135</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3142,7 +3140,7 @@
         <v>136</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3153,7 +3151,7 @@
         <v>137</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3164,7 +3162,7 @@
         <v>138</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3179,7 +3177,7 @@
         <v>140</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3190,7 +3188,7 @@
         <v>141</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3201,7 +3199,7 @@
         <v>142</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3212,7 +3210,7 @@
         <v>143</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3223,7 +3221,7 @@
         <v>144</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3234,7 +3232,7 @@
         <v>145</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3245,7 +3243,7 @@
         <v>146</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3256,7 +3254,7 @@
         <v>147</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3267,7 +3265,7 @@
         <v>148</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3278,7 +3276,7 @@
         <v>149</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3289,7 +3287,7 @@
         <v>150</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3300,7 +3298,7 @@
         <v>151</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3311,7 +3309,7 @@
         <v>152</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3322,7 +3320,7 @@
         <v>153</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3333,7 +3331,7 @@
         <v>154</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3344,7 +3342,7 @@
         <v>155</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3355,7 +3353,7 @@
         <v>156</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3366,7 +3364,7 @@
         <v>157</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3377,7 +3375,7 @@
         <v>158</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3388,7 +3386,7 @@
         <v>159</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3399,7 +3397,7 @@
         <v>160</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3410,7 +3408,7 @@
         <v>161</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3421,7 +3419,7 @@
         <v>162</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3432,7 +3430,7 @@
         <v>163</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3443,7 +3441,7 @@
         <v>164</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3454,7 +3452,7 @@
         <v>165</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3465,7 +3463,7 @@
         <v>166</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3476,7 +3474,7 @@
         <v>167</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3487,7 +3485,7 @@
         <v>168</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3498,7 +3496,7 @@
         <v>169</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3509,7 +3507,7 @@
         <v>170</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3520,7 +3518,7 @@
         <v>171</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3531,7 +3529,7 @@
         <v>172</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3542,7 +3540,7 @@
         <v>173</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3553,7 +3551,7 @@
         <v>174</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3564,7 +3562,7 @@
         <v>175</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3579,7 +3577,7 @@
         <v>177</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3590,7 +3588,7 @@
         <v>178</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3601,7 +3599,7 @@
         <v>179</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3612,7 +3610,7 @@
         <v>180</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3623,7 +3621,7 @@
         <v>181</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3634,7 +3632,7 @@
         <v>182</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3645,7 +3643,7 @@
         <v>183</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3656,7 +3654,7 @@
         <v>184</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3667,7 +3665,7 @@
         <v>185</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3678,7 +3676,7 @@
         <v>186</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3689,7 +3687,7 @@
         <v>187</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3700,7 +3698,7 @@
         <v>188</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3711,7 +3709,7 @@
         <v>189</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3722,7 +3720,7 @@
         <v>190</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3733,7 +3731,7 @@
         <v>191</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3744,7 +3742,7 @@
         <v>192</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3755,7 +3753,7 @@
         <v>193</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3766,7 +3764,7 @@
         <v>194</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3777,7 +3775,7 @@
         <v>195</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3788,7 +3786,7 @@
         <v>196</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3799,7 +3797,7 @@
         <v>197</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3810,7 +3808,7 @@
         <v>198</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3821,7 +3819,7 @@
         <v>199</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3832,7 +3830,7 @@
         <v>200</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3843,7 +3841,7 @@
         <v>201</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3854,7 +3852,7 @@
         <v>202</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3865,7 +3863,7 @@
         <v>203</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3876,7 +3874,7 @@
         <v>204</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3887,7 +3885,7 @@
         <v>205</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3898,7 +3896,7 @@
         <v>206</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3909,7 +3907,7 @@
         <v>207</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3920,7 +3918,7 @@
         <v>208</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3931,7 +3929,7 @@
         <v>209</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3942,7 +3940,7 @@
         <v>210</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3953,7 +3951,7 @@
         <v>211</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3974,7 +3972,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3985,7 +3983,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3996,7 +3994,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4007,7 +4005,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4018,7 +4016,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4029,7 +4027,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4040,7 +4038,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4051,7 +4049,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4062,7 +4060,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4073,7 +4071,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4084,7 +4082,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4095,7 +4093,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4106,7 +4104,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4117,7 +4115,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4128,7 +4126,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4139,7 +4137,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4150,7 +4148,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4161,7 +4159,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4172,7 +4170,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4183,7 +4181,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4194,7 +4192,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4205,7 +4203,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4224,7 +4222,7 @@
         <v>236</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4235,7 +4233,7 @@
         <v>237</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4246,7 +4244,7 @@
         <v>238</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4257,7 +4255,7 @@
         <v>239</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4268,7 +4266,7 @@
         <v>240</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4279,7 +4277,7 @@
         <v>241</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4290,7 +4288,7 @@
         <v>242</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4301,7 +4299,7 @@
         <v>243</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4312,7 +4310,7 @@
         <v>244</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4323,7 +4321,7 @@
         <v>245</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4334,7 +4332,7 @@
         <v>246</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4345,7 +4343,7 @@
         <v>247</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4356,7 +4354,7 @@
         <v>248</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4367,7 +4365,7 @@
         <v>249</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4378,7 +4376,7 @@
         <v>250</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4389,7 +4387,7 @@
         <v>251</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4400,7 +4398,7 @@
         <v>252</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4411,7 +4409,7 @@
         <v>253</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4422,7 +4420,7 @@
         <v>254</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4433,7 +4431,7 @@
         <v>255</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4444,7 +4442,7 @@
         <v>256</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4455,7 +4453,7 @@
         <v>257</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4466,7 +4464,7 @@
         <v>258</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4477,7 +4475,7 @@
         <v>259</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4488,7 +4486,7 @@
         <v>260</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4499,7 +4497,7 @@
         <v>261</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4510,7 +4508,7 @@
         <v>262</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4521,7 +4519,7 @@
         <v>263</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4532,7 +4530,7 @@
         <v>264</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4543,7 +4541,7 @@
         <v>265</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4554,7 +4552,7 @@
         <v>266</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4565,7 +4563,7 @@
         <v>267</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4576,7 +4574,7 @@
         <v>268</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4587,7 +4585,7 @@
         <v>92</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4598,7 +4596,7 @@
         <v>269</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4617,7 +4615,7 @@
         <v>271</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4628,7 +4626,7 @@
         <v>272</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4639,7 +4637,7 @@
         <v>273</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4650,7 +4648,7 @@
         <v>274</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4661,7 +4659,7 @@
         <v>275</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4672,7 +4670,7 @@
         <v>276</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4683,7 +4681,7 @@
         <v>277</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4694,7 +4692,7 @@
         <v>278</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4705,7 +4703,7 @@
         <v>279</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4716,7 +4714,7 @@
         <v>280</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4727,7 +4725,7 @@
         <v>281</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4738,7 +4736,7 @@
         <v>282</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4749,7 +4747,7 @@
         <v>283</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4760,7 +4758,7 @@
         <v>284</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4771,7 +4769,7 @@
         <v>285</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4782,7 +4780,7 @@
         <v>286</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4793,7 +4791,7 @@
         <v>287</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4804,7 +4802,7 @@
         <v>288</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4815,7 +4813,7 @@
         <v>289</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4834,7 +4832,7 @@
         <v>291</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4845,7 +4843,7 @@
         <v>292</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4856,7 +4854,7 @@
         <v>293</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4867,7 +4865,7 @@
         <v>294</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4878,7 +4876,7 @@
         <v>295</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4889,7 +4887,7 @@
         <v>296</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4900,7 +4898,7 @@
         <v>297</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4911,7 +4909,7 @@
         <v>298</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4922,7 +4920,7 @@
         <v>299</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4933,7 +4931,7 @@
         <v>300</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4944,7 +4942,7 @@
         <v>301</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4955,7 +4953,7 @@
         <v>302</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4966,7 +4964,7 @@
         <v>303</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4977,7 +4975,7 @@
         <v>304</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4988,7 +4986,7 @@
         <v>305</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4999,7 +4997,7 @@
         <v>306</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5010,7 +5008,7 @@
         <v>307</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5021,7 +5019,7 @@
         <v>308</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5032,7 +5030,7 @@
         <v>309</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5043,7 +5041,7 @@
         <v>310</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5054,7 +5052,7 @@
         <v>311</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5065,7 +5063,7 @@
         <v>312</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5076,7 +5074,7 @@
         <v>313</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5087,7 +5085,7 @@
         <v>314</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5098,7 +5096,7 @@
         <v>315</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5109,7 +5107,7 @@
         <v>316</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5120,7 +5118,7 @@
         <v>317</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5131,7 +5129,7 @@
         <v>318</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5142,7 +5140,7 @@
         <v>319</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5153,7 +5151,7 @@
         <v>320</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5164,7 +5162,7 @@
         <v>321</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5175,7 +5173,7 @@
         <v>322</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5186,7 +5184,7 @@
         <v>323</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5197,7 +5195,7 @@
         <v>324</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5208,7 +5206,7 @@
         <v>325</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5219,7 +5217,7 @@
         <v>326</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5230,7 +5228,7 @@
         <v>327</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5241,7 +5239,7 @@
         <v>328</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5260,7 +5258,7 @@
         <v>330</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5271,7 +5269,7 @@
         <v>331</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5282,7 +5280,7 @@
         <v>332</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5293,7 +5291,7 @@
         <v>333</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5304,7 +5302,7 @@
         <v>334</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5315,7 +5313,7 @@
         <v>335</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5326,7 +5324,7 @@
         <v>336</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5337,7 +5335,7 @@
         <v>337</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5348,7 +5346,7 @@
         <v>338</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5359,7 +5357,7 @@
         <v>339</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5370,7 +5368,7 @@
         <v>340</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5381,7 +5379,7 @@
         <v>341</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5392,7 +5390,7 @@
         <v>342</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5403,7 +5401,7 @@
         <v>343</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5414,7 +5412,7 @@
         <v>344</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5425,7 +5423,7 @@
         <v>345</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5436,7 +5434,7 @@
         <v>346</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5447,7 +5445,7 @@
         <v>347</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5466,7 +5464,7 @@
         <v>349</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5477,7 +5475,7 @@
         <v>350</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5488,7 +5486,7 @@
         <v>351</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5499,7 +5497,7 @@
         <v>352</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5510,7 +5508,7 @@
         <v>353</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5521,7 +5519,7 @@
         <v>354</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5532,7 +5530,7 @@
         <v>355</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5543,7 +5541,7 @@
         <v>356</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5554,7 +5552,7 @@
         <v>357</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5565,7 +5563,7 @@
         <v>358</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5576,7 +5574,7 @@
         <v>359</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5587,7 +5585,7 @@
         <v>360</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5598,7 +5596,7 @@
         <v>361</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5609,7 +5607,7 @@
         <v>362</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5620,7 +5618,7 @@
         <v>363</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5631,7 +5629,7 @@
         <v>364</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5642,7 +5640,7 @@
         <v>365</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5653,7 +5651,7 @@
         <v>366</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5664,7 +5662,7 @@
         <v>367</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5675,7 +5673,7 @@
         <v>368</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5686,7 +5684,7 @@
         <v>369</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5697,7 +5695,7 @@
         <v>370</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5708,7 +5706,7 @@
         <v>371</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5719,7 +5717,7 @@
         <v>372</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5730,7 +5728,7 @@
         <v>373</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5741,7 +5739,7 @@
         <v>374</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5752,7 +5750,7 @@
         <v>375</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5763,7 +5761,7 @@
         <v>376</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5774,7 +5772,7 @@
         <v>377</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5785,7 +5783,7 @@
         <v>378</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5796,7 +5794,7 @@
         <v>379</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5807,7 +5805,7 @@
         <v>380</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5818,7 +5816,7 @@
         <v>381</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5829,7 +5827,7 @@
         <v>382</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5840,7 +5838,7 @@
         <v>382</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5851,7 +5849,7 @@
         <v>383</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5862,7 +5860,7 @@
         <v>384</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5873,7 +5871,7 @@
         <v>385</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5884,7 +5882,7 @@
         <v>386</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5895,7 +5893,7 @@
         <v>387</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5906,7 +5904,7 @@
         <v>388</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5917,7 +5915,7 @@
         <v>389</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5928,7 +5926,7 @@
         <v>390</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5939,7 +5937,7 @@
         <v>391</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5958,7 +5956,7 @@
         <v>393</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5969,7 +5967,7 @@
         <v>394</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5980,7 +5978,7 @@
         <v>395</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5991,7 +5989,7 @@
         <v>94</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6002,7 +6000,7 @@
         <v>396</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6013,7 +6011,7 @@
         <v>397</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6032,7 +6030,7 @@
         <v>399</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6043,7 +6041,7 @@
         <v>400</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6054,7 +6052,7 @@
         <v>401</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6065,7 +6063,7 @@
         <v>402</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6076,7 +6074,7 @@
         <v>403</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6087,7 +6085,7 @@
         <v>404</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6098,7 +6096,7 @@
         <v>405</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6109,7 +6107,7 @@
         <v>278</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6120,7 +6118,7 @@
         <v>406</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6131,7 +6129,7 @@
         <v>407</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6142,7 +6140,7 @@
         <v>408</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6153,7 +6151,7 @@
         <v>409</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6164,7 +6162,7 @@
         <v>410</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6175,7 +6173,7 @@
         <v>411</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6186,7 +6184,7 @@
         <v>412</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6197,7 +6195,7 @@
         <v>413</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6208,7 +6206,7 @@
         <v>414</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6219,7 +6217,7 @@
         <v>415</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6230,7 +6228,7 @@
         <v>416</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6241,7 +6239,7 @@
         <v>417</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6252,7 +6250,7 @@
         <v>418</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6263,7 +6261,7 @@
         <v>419</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6274,7 +6272,7 @@
         <v>420</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6285,7 +6283,7 @@
         <v>421</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6296,7 +6294,7 @@
         <v>422</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6307,7 +6305,7 @@
         <v>423</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6318,7 +6316,7 @@
         <v>424</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6329,7 +6327,7 @@
         <v>425</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6340,7 +6338,7 @@
         <v>426</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6351,7 +6349,7 @@
         <v>427</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6362,7 +6360,7 @@
         <v>428</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6373,7 +6371,7 @@
         <v>429</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6384,7 +6382,7 @@
         <v>430</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6395,7 +6393,7 @@
         <v>431</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6406,7 +6404,7 @@
         <v>432</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6417,7 +6415,7 @@
         <v>433</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6428,7 +6426,7 @@
         <v>434</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6439,7 +6437,7 @@
         <v>435</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6450,7 +6448,7 @@
         <v>436</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6461,7 +6459,7 @@
         <v>437</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6472,7 +6470,7 @@
         <v>438</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6483,7 +6481,7 @@
         <v>439</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6494,7 +6492,7 @@
         <v>440</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6505,7 +6503,7 @@
         <v>441</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6516,7 +6514,7 @@
         <v>442</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6527,7 +6525,7 @@
         <v>443</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6538,7 +6536,7 @@
         <v>444</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6549,7 +6547,7 @@
         <v>445</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6560,7 +6558,7 @@
         <v>446</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6571,7 +6569,7 @@
         <v>447</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6582,7 +6580,7 @@
         <v>448</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6593,7 +6591,7 @@
         <v>449</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6604,7 +6602,7 @@
         <v>450</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6615,7 +6613,7 @@
         <v>451</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6626,7 +6624,7 @@
         <v>452</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6637,7 +6635,7 @@
         <v>453</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6648,7 +6646,7 @@
         <v>454</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6659,7 +6657,7 @@
         <v>455</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6670,7 +6668,7 @@
         <v>456</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6681,7 +6679,7 @@
         <v>457</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6701,7 +6699,7 @@
         <v>459</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6712,7 +6710,7 @@
         <v>460</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6723,7 +6721,7 @@
         <v>461</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6734,7 +6732,7 @@
         <v>462</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6745,7 +6743,7 @@
         <v>463</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6756,7 +6754,7 @@
         <v>464</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6767,7 +6765,7 @@
         <v>465</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6778,7 +6776,7 @@
         <v>466</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6789,7 +6787,7 @@
         <v>467</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6800,7 +6798,7 @@
         <v>468</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Final_450/FINAL450.xlsx
+++ b/Final_450/FINAL450.xlsx
@@ -1722,11 +1722,11 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A452" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B486" activeCellId="0" sqref="B486"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C408" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D418" activeCellId="0" sqref="D418"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="28.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="123"/>
@@ -7178,7 +7178,7 @@
         <v>401</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7192,7 +7192,7 @@
         <v>402</v>
       </c>
       <c r="D411" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7206,7 +7206,7 @@
         <v>403</v>
       </c>
       <c r="D412" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7220,7 +7220,7 @@
         <v>404</v>
       </c>
       <c r="D413" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7234,7 +7234,7 @@
         <v>405</v>
       </c>
       <c r="D414" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7262,7 +7262,7 @@
         <v>407</v>
       </c>
       <c r="D416" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7276,7 +7276,7 @@
         <v>280</v>
       </c>
       <c r="D417" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Final_450/FINAL450.xlsx
+++ b/Final_450/FINAL450.xlsx
@@ -1722,11 +1722,11 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C408" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D418" activeCellId="0" sqref="D418"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="28.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="123"/>
@@ -1921,7 +1921,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Final_450/FINAL450.xlsx
+++ b/Final_450/FINAL450.xlsx
@@ -1722,11 +1722,11 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="28.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="123"/>
@@ -1999,7 +1999,7 @@
         <v>28</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2013,7 +2013,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Final_450/FINAL450.xlsx
+++ b/Final_450/FINAL450.xlsx
@@ -1722,11 +1722,11 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="28.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="123"/>
@@ -2027,7 +2027,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2041,7 +2041,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2069,7 +2069,7 @@
         <v>33</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2265,7 +2265,7 @@
         <v>47</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2279,7 +2279,7 @@
         <v>48</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2451,7 +2451,7 @@
         <v>61</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2465,7 +2465,7 @@
         <v>62</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2479,7 +2479,7 @@
         <v>63</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Final_450/FINAL450.xlsx
+++ b/Final_450/FINAL450.xlsx
@@ -1722,11 +1722,11 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B235" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C238" activeCellId="0" sqref="C238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="28.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="123"/>
@@ -2083,7 +2083,7 @@
         <v>34</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3058,7 +3058,7 @@
         <v>105</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3072,7 +3072,7 @@
         <v>106</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4574,7 +4574,7 @@
         <v>215</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Final_450/FINAL450.xlsx
+++ b/Final_450/FINAL450.xlsx
@@ -1722,11 +1722,11 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B235" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C238" activeCellId="0" sqref="C238"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C250" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C271" activeCellId="0" sqref="C271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="28.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="123"/>
@@ -4890,7 +4890,7 @@
         <v>238</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5366,7 +5366,7 @@
         <v>271</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7178,7 +7178,7 @@
         <v>401</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7206,7 +7206,7 @@
         <v>403</v>
       </c>
       <c r="D412" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
